--- a/arquivos_postos/output/14794278000192.xlsx
+++ b/arquivos_postos/output/14794278000192.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,11 @@
           <t>Afericao</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Obs</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -495,6 +500,11 @@
           <t>200,000</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -532,6 +542,11 @@
           <t>200,000</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -569,6 +584,11 @@
           <t>319,390</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -606,6 +626,11 @@
           <t>200,011</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -643,6 +668,11 @@
           <t>200,001</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -680,6 +710,11 @@
           <t>200,000</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -717,6 +752,11 @@
           <t>200,001</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -754,6 +794,11 @@
           <t>200,000</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -791,6 +836,11 @@
           <t>200,000</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -828,6 +878,11 @@
           <t>200,000</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -865,6 +920,11 @@
           <t>200,000</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -900,6 +960,11 @@
       <c r="G13" t="inlineStr">
         <is>
           <t>200,000</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
         </is>
       </c>
     </row>
@@ -914,7 +979,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -948,6 +1013,11 @@
           <t>Recebimento</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Obs</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -975,6 +1045,11 @@
           <t>20.000,000</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1002,6 +1077,11 @@
           <t>42.000,000</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1029,6 +1109,11 @@
           <t>6.961,000</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1056,6 +1141,11 @@
           <t>2.000,000</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1081,6 +1171,11 @@
       <c r="E6" t="inlineStr">
         <is>
           <t>6.000,000</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>VERDADEIRO</t>
         </is>
       </c>
     </row>
